--- a/data/long_bre/P31-Edad-long_bre.xlsx
+++ b/data/long_bre/P31-Edad-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +540,16 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +566,32 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,37</t>
+          <t>12,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,35</t>
+          <t>-5,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-16,88%</t>
+          <t>-14,27</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28,19%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-13,33%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17,86%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-28,01%</t>
         </is>
       </c>
     </row>
@@ -609,22 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 25,8</t>
+          <t>-0,97; 28,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 8,41</t>
+          <t>-18,59; 8,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 66,99</t>
+          <t>-12,92; 25,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-42,63; 31,21</t>
+          <t>-34,77; 5,35</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 79,95</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-41,04; 28,97</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-24,09; 84,51</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-55,59; 12,76</t>
         </is>
       </c>
     </row>
@@ -632,27 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,72</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,71%</t>
+          <t>8,19</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>161,92%</t>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>51,49%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>163,6%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>185,86%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>50,22%</t>
         </is>
       </c>
     </row>
@@ -665,22 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 9,99</t>
+          <t>-4,84; 9,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 14,57</t>
+          <t>0,43; 14,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,88; 418,68</t>
+          <t>-1,77; 16,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 863,57</t>
+          <t>-10,15; 20,05</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-56,23; 426,0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-16,16; 951,3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-47,46; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-69,4; 721,39</t>
         </is>
       </c>
     </row>
@@ -688,27 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-14,13</t>
+          <t>-15,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-30,1%</t>
+          <t>-15,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,38%</t>
+          <t>9,25</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-32,27%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-3,93%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-28,85%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23,69%</t>
         </is>
       </c>
     </row>
@@ -721,54 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,22; 0,93</t>
+          <t>-30,94; -2,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 11,99</t>
+          <t>-16,06; 12,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-52,52; 2,67</t>
+          <t>-34,15; 4,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 24,77</t>
+          <t>-11,19; 30,75</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-55,24; -4,44</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-24,71; 25,81</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-52,92; 10,02</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-21,44; 112,41</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,52%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 20,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 10,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 62,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,61; 36,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,41</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,38%</t>
+          <t>11,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>83,95%</t>
+          <t>11,88</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>43,32%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>34,32%</t>
         </is>
       </c>
     </row>
@@ -837,22 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 9,54</t>
+          <t>-14,61; 19,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 18,92</t>
+          <t>-16,1; 13,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-43,86; 50,3</t>
+          <t>-2,9; 26,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,6; 231,33</t>
+          <t>-8,98; 30,96</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-25,51; 60,14</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-33,86; 48,85</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,39; 149,78</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-17,57; 152,3</t>
         </is>
       </c>
     </row>
@@ -860,27 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,23</t>
+          <t>10,97</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-15,28%</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-19,56%</t>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-1,65%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>94,1%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-9,81%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>28,18%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 8,33</t>
+          <t>-12,36; 11,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 3,13</t>
+          <t>1,96; 19,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,45; 31,51</t>
+          <t>-10,79; 8,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,1; 8,41</t>
+          <t>-10,56; 11,64</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-42,2; 65,06</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12,57; 256,37</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-63,09; 139,92</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-71,78; 551,02</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,37</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>-11,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>37,4%</t>
+          <t>-10,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-11,93%</t>
+          <t>-14,04</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-11,91%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-21,21%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-17,2%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-24,32%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,19; 25,05</t>
+          <t>-17,13; 10,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 4,91</t>
+          <t>-23,49; 4,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,83; 77,37</t>
+          <t>-29,64; 4,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-31,31; 15,13</t>
+          <t>-37,69; 7,5</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-42,52; 41,82</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-39,09; 10,78</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-41,18; 9,7</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-51,8; 18,36</t>
         </is>
       </c>
     </row>
@@ -976,27 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 12,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 11,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,99; 112,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,4; 86,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-18,87</t>
+          <t>13,22</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-41,04%</t>
+          <t>-10,26</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>-8,93</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>33,76%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-11,1%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-23,42%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-20,46%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-30,16; -7,69</t>
+          <t>3,19; 24,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 10,28</t>
+          <t>-15,26; 4,98</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-56,77; -20,38</t>
+          <t>-21,68; 0,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 29,89</t>
+          <t>-22,87; 4,05</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>6,98; 76,37</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-32,35; 14,72</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-42,55; 2,28</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-46,14; 11,52</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>8,03</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>46,1%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>22,32%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>72,36%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>117,56%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 11,18</t>
+          <t>-3,37; 14,41</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 12,22</t>
+          <t>-5,37; 11,7</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 24,25</t>
+          <t>0,19; 15,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 36,11</t>
+          <t>-2,19; 16,33</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-19,78; 150,55</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-22,28; 85,05</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 211,69</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-37,72; 477,46</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-19,8</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-4,2%</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-13,37%</t>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-42,53%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>5,13%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 7,54</t>
+          <t>-32,19; -9,39</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 4,18</t>
+          <t>-9,62; 10,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-37,75; 46,4</t>
+          <t>-9,38; 13,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 22,98</t>
+          <t>-13,01; 15,66</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-58,16; -22,3</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-20,61; 29,48</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-18,33; 34,98</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-23,2; 37,54</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,54 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 10,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 8,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 45,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 25,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-7,4%</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-14,76%</t>
+          <t>7,53</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>14,72%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>22,74%</t>
         </is>
       </c>
     </row>
@@ -1297,22 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 8,01</t>
+          <t>-10,52; 9,25</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 3,48</t>
+          <t>-5,88; 12,14</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-30,13; 22,82</t>
+          <t>-5,81; 14,72</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-36,22; 10,6</t>
+          <t>-6,33; 21,17</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-18,91; 19,94</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-13,48; 37,5</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-16,46; 61,94</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-16,56; 81,25</t>
         </is>
       </c>
     </row>
@@ -1320,27 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-4,15</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5,43</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-14,17%</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>17,62</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-1,99%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-13,03%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>14,09%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>118,04%</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 8,13</t>
+          <t>-8,73; 6,64</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 14,55</t>
+          <t>-9,84; 4,3</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-40,33; 35,36</t>
+          <t>-5,8; 9,12</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 59,23</t>
+          <t>6,76; 28,65</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-34,99; 42,09</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-37,03; 23,8</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-31,57; 88,39</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>30,97; 277,21</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>-6,39</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>-25,15</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-1,83%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-11,43%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-48,42%</t>
         </is>
       </c>
     </row>
@@ -1409,54 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 18,55</t>
+          <t>-10,42; 9,45</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 10,16</t>
+          <t>-8,66; 8,34</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 76,44</t>
+          <t>-17,38; 5,53</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 36,19</t>
+          <t>-38,43; -11,12</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-29,07; 39,66</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-19,6; 23,31</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-27,96; 10,53</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-65,54; -23,79</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-20,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-45,47%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,50 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-36,15; -6,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 11,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-63,78; -17,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 51,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>12,11</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>37,79%</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-6,93%</t>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>-9,62%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-14,08%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>25,19%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 26,6</t>
+          <t>-15,41; 8,3</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 11,29</t>
+          <t>-15,18; 3,65</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 113,37</t>
+          <t>-6,64; 17,68</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 32,2</t>
+          <t>-14,04; 13,0</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-33,33; 23,35</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-36,0; 10,95</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-19,3; 77,04</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-34,16; 48,82</t>
         </is>
       </c>
     </row>
@@ -1548,27 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>8,47</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>37,32%</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>-6,14</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>-12,57%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>20,95%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>27,86%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-22,55%</t>
         </is>
       </c>
     </row>
@@ -1581,54 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 21,87</t>
+          <t>-14,25; 6,99</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 12,07</t>
+          <t>-2,91; 14,86</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 134,63</t>
+          <t>-4,75; 18,53</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 49,42</t>
+          <t>-19,19; 6,72</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-40,97; 31,02</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-8,6; 64,37</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-25,18; 146,61</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-54,27; 32,63</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>-11,72</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>-6,05%</t>
+          <t>5,96</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>25,55%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>-1,32%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>-21,21%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>15,56%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 6,32</t>
+          <t>-4,76; 19,13</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 2,5</t>
+          <t>-9,16; 8,85</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 15,47</t>
+          <t>-24,77; 1,0</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 7,72</t>
+          <t>-9,44; 19,15</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-15,06; 82,42</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-25,25; 32,68</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-41,58; 1,35</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-20,72; 61,29</t>
         </is>
       </c>
     </row>
@@ -1664,27 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1697,50 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 7,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 8,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 38,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 43,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>-18,76</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>-11,76%</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>-4,49%</t>
+          <t>6,68</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>-42,38%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>23,95%</t>
         </is>
       </c>
     </row>
@@ -1753,37 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 1,31</t>
+          <t>-31,91; -6,14</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 2,54</t>
+          <t>-8,34; 12,1</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-24,94; 4,14</t>
+          <t>-15,13; 15,15</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 6,41</t>
+          <t>-10,55; 24,97</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>-60,71; -16,62</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>-23,43; 57,07</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-37,02; 61,55</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-30,74; 134,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>11,49</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-4,75</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-8,57</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>35,12%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-11,21%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>0,51%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-23,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; 25,05</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-15,5; 8,91</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-16,33; 14,55</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-25,21; 10,38</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-6,97; 100,19</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-32,66; 24,21</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-43,1; 75,35</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-58,09; 36,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>7,27</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>31,59%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>7,74%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>-2,07%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>5,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; 19,08</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-8,35; 13,68</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-15,55; 15,21</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-16,57; 21,51</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-13,94; 118,86</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-23,34; 58,24</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-33,24; 51,31</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-37,7; 82,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-1,52</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>-4,15%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 5,68</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; 2,95</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 9,4</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-6,41; 7,99</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-9,18; 13,9</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-16,32; 8,92</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-5,89; 31,89</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-15,48; 24,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>3,71</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>3,84</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>4,15</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>4,22</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>17,89%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>18,28%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>28,65%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>25,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 8,14</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 7,75</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 8,7</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 10,22</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 44,33</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 40,89</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 71,98</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-5,44; 71,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>-4,63</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>-2,32</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>-7,18</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>-4,56</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>-13,12%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-5,48%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>-13,86%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>-9,95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-10,0; 0,13</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 2,67</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-14,09; -1,93</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-12,22; 1,95</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-26,54; 0,35</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-15,06; 6,77</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-25,34; -4,05</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-24,22; 4,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P31-Edad-long_bre.xlsx
+++ b/data/long_bre/P31-Edad-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -720,7 +720,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -814,7 +814,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -914,7 +914,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1010,7 +1010,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1106,7 +1106,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1302,7 +1302,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1398,7 +1398,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1594,7 +1594,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1690,7 +1690,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -1886,7 +1886,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -1982,7 +1982,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2178,7 +2178,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2274,7 +2274,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -2470,7 +2470,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -2566,7 +2566,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
